--- a/biology/Zoologie/Herbert_Spencer_Jennings/Herbert_Spencer_Jennings.xlsx
+++ b/biology/Zoologie/Herbert_Spencer_Jennings/Herbert_Spencer_Jennings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert Spencer Jennings est un zoologiste et un généticien américain, né le 8 avril 1868 à Tonica et mort le 14 avril 1947 à Santa Monica (Californie).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses recherches sur les cœlentérés et les échinodermes sont présentées notamment dans son ouvrage The Behaviour of the Lower Organisms[1] (1906). Il étudie le comportement de protozoaires comme ceux des genres Paramecium et Amoeba. Il complète les observations de Jacques Loeb (1859-1924). Il s’intéresse également à la question de l’hérédité et fait paraître Life and death, heredity and evolution in unicellular organisms[2],[3] (1920).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses recherches sur les cœlentérés et les échinodermes sont présentées notamment dans son ouvrage The Behaviour of the Lower Organisms (1906). Il étudie le comportement de protozoaires comme ceux des genres Paramecium et Amoeba. Il complète les observations de Jacques Loeb (1859-1924). Il s’intéresse également à la question de l’hérédité et fait paraître Life and death, heredity and evolution in unicellular organisms, (1920).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Exemplaire numérique consultable sur Internet Archive.
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William Homan Thorpe (1979). The Origins and Rise of Ethology, Praeger (New York) : ix + 174 p.  (ISBN 0435624415)</t>
         </is>
